--- a/data/trans_orig/P33B_R1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R1-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>18590</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8373</v>
+        <v>6787</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38086</v>
+        <v>35966</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04558576055935647</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02053269226742646</v>
+        <v>0.01664357490375392</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09339633044934953</v>
+        <v>0.08819663874253009</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -762,19 +762,19 @@
         <v>34078</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19768</v>
+        <v>19998</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53957</v>
+        <v>52893</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09400623256003315</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05453168784055276</v>
+        <v>0.0551657764368314</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1488415652950874</v>
+        <v>0.145907024905424</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -783,19 +783,19 @@
         <v>52668</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33487</v>
+        <v>32334</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>80000</v>
+        <v>76229</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06837283850433375</v>
+        <v>0.06837283850433372</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04347254215126797</v>
+        <v>0.04197520087049793</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1038546642179678</v>
+        <v>0.098959353146021</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>389203</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>369707</v>
+        <v>371827</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>399420</v>
+        <v>401006</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9544142394406436</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9066036695506501</v>
+        <v>0.9118033612574695</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9794673077325734</v>
+        <v>0.9833564250962462</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>191</v>
@@ -833,19 +833,19 @@
         <v>328434</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>308555</v>
+        <v>309619</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>342744</v>
+        <v>342514</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9059937674399667</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8511584347049128</v>
+        <v>0.8540929750945762</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9454683121594473</v>
+        <v>0.9448342235631685</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>356</v>
@@ -854,19 +854,19 @@
         <v>717637</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>690305</v>
+        <v>694076</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>736818</v>
+        <v>737971</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9316271614956664</v>
+        <v>0.9316271614956662</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8961453357820318</v>
+        <v>0.901040646853979</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9565274578487319</v>
+        <v>0.9580247991295021</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>26585</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15896</v>
+        <v>15762</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41173</v>
+        <v>42224</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05574619499809327</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03333251879032547</v>
+        <v>0.03305226938230417</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08633551722194918</v>
+        <v>0.08854086283218714</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -979,19 +979,19 @@
         <v>43553</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32487</v>
+        <v>31052</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>58586</v>
+        <v>57422</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08691743965645474</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06483418182295639</v>
+        <v>0.06197061633121861</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1169178248120406</v>
+        <v>0.1145955428889879</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>58</v>
@@ -1000,19 +1000,19 @@
         <v>70138</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>53159</v>
+        <v>54348</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>90143</v>
+        <v>93873</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.07171736999099917</v>
+        <v>0.07171736999099916</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05435620296821217</v>
+        <v>0.05557213035983774</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09217328286159455</v>
+        <v>0.09598732748741332</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>450305</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>435717</v>
+        <v>434666</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>460994</v>
+        <v>461128</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9442538050019067</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.913664482778051</v>
+        <v>0.9114591371678129</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9666674812096744</v>
+        <v>0.9669477306176958</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>420</v>
@@ -1050,19 +1050,19 @@
         <v>457530</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>442497</v>
+        <v>443661</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>468596</v>
+        <v>470031</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9130825603435453</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8830821751879595</v>
+        <v>0.885404457111012</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9351658181770437</v>
+        <v>0.9380293836687815</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>704</v>
@@ -1071,19 +1071,19 @@
         <v>907835</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>887830</v>
+        <v>884100</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>924814</v>
+        <v>923625</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9282826300090008</v>
+        <v>0.9282826300090007</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9078267171384056</v>
+        <v>0.9040126725125869</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9456437970317879</v>
+        <v>0.9444278696401625</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>57433</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42496</v>
+        <v>43385</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74713</v>
+        <v>76704</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09250859531721638</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06844893552566829</v>
+        <v>0.06988100758919168</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1203425156915118</v>
+        <v>0.1235485870590634</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>99</v>
@@ -1196,19 +1196,19 @@
         <v>73812</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60976</v>
+        <v>61067</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>89086</v>
+        <v>89645</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1186428834982532</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09800999922444935</v>
+        <v>0.09815699191609817</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1431937545608437</v>
+        <v>0.1440913185720155</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>148</v>
@@ -1217,19 +1217,19 @@
         <v>131245</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>112652</v>
+        <v>111551</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>153197</v>
+        <v>151824</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1055894315627298</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09063100920395581</v>
+        <v>0.08974518657476942</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1232501951185017</v>
+        <v>0.1221456773273697</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>563404</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>546124</v>
+        <v>544133</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>578341</v>
+        <v>577452</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9074914046827838</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.879657484308488</v>
+        <v>0.8764514129409365</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9315510644743317</v>
+        <v>0.9301189924108083</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>747</v>
@@ -1267,19 +1267,19 @@
         <v>548327</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>533053</v>
+        <v>532494</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>561163</v>
+        <v>561072</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8813571165017469</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8568062454391565</v>
+        <v>0.8559086814279844</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9019900007755506</v>
+        <v>0.9018430080839017</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1244</v>
@@ -1288,19 +1288,19 @@
         <v>1111731</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1089779</v>
+        <v>1091152</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1130324</v>
+        <v>1131425</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8944105684372702</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8767498048814983</v>
+        <v>0.8778543226726304</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9093689907960443</v>
+        <v>0.9102548134252307</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>91496</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>75257</v>
+        <v>73621</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>113265</v>
+        <v>110863</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1305928300763173</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1074148607844947</v>
+        <v>0.1050806066686743</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1616650185503584</v>
+        <v>0.1582357148793794</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>226</v>
@@ -1413,19 +1413,19 @@
         <v>147829</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>131955</v>
+        <v>129364</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>166853</v>
+        <v>163728</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2007193160339132</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1791661088188055</v>
+        <v>0.1756475019379855</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2265498296653159</v>
+        <v>0.2223071540101468</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>310</v>
@@ -1434,19 +1434,19 @@
         <v>239324</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>213302</v>
+        <v>214735</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>265237</v>
+        <v>265934</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1665314351534622</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1484238824119562</v>
+        <v>0.1494214158583344</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1845623863259438</v>
+        <v>0.1850475341639982</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>609121</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>587352</v>
+        <v>589754</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>625360</v>
+        <v>626996</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8694071699236828</v>
+        <v>0.8694071699236826</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.838334981449642</v>
+        <v>0.8417642851206205</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8925851392155053</v>
+        <v>0.8949193933313255</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>914</v>
@@ -1484,19 +1484,19 @@
         <v>588666</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>569642</v>
+        <v>572767</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>604540</v>
+        <v>607131</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7992806839660869</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7734501703346842</v>
+        <v>0.7776928459898531</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8208338911811944</v>
+        <v>0.8243524980620147</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1495</v>
@@ -1505,19 +1505,19 @@
         <v>1197788</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1171875</v>
+        <v>1171178</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1223810</v>
+        <v>1222377</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8334685648465375</v>
+        <v>0.8334685648465378</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8154376136740563</v>
+        <v>0.8149524658360017</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.851576117588044</v>
+        <v>0.8505785841416657</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>97858</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81180</v>
+        <v>82300</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>116782</v>
+        <v>116565</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1608798862947224</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1334608100464002</v>
+        <v>0.1353030866975719</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.191992698157715</v>
+        <v>0.1916359369343752</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>299</v>
@@ -1630,19 +1630,19 @@
         <v>187302</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>169570</v>
+        <v>170123</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>204818</v>
+        <v>205187</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3082681673340549</v>
+        <v>0.3082681673340548</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2790851420892136</v>
+        <v>0.2799949822024456</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3370969470270808</v>
+        <v>0.3377047511229224</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>408</v>
@@ -1651,19 +1651,19 @@
         <v>285159</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>261007</v>
+        <v>261071</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>311354</v>
+        <v>311010</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2345333610260026</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2146688785764405</v>
+        <v>0.214721537926961</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2560776054049443</v>
+        <v>0.255794708178007</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>510407</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>491483</v>
+        <v>491700</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>527085</v>
+        <v>525965</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8391201137052777</v>
+        <v>0.8391201137052776</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8080073018422849</v>
+        <v>0.8083640630656245</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8665391899535999</v>
+        <v>0.8646969133024279</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>701</v>
@@ -1701,19 +1701,19 @@
         <v>420292</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>402776</v>
+        <v>402407</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>438024</v>
+        <v>437471</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6917318326659451</v>
+        <v>0.6917318326659452</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6629030529729193</v>
+        <v>0.6622952488770777</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7209148579107866</v>
+        <v>0.7200050177975544</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1254</v>
@@ -1722,19 +1722,19 @@
         <v>930699</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>904504</v>
+        <v>904848</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>954851</v>
+        <v>954787</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7654666389739974</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7439223945950558</v>
+        <v>0.7442052918219931</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7853311214235593</v>
+        <v>0.785278462073039</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>75001</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>62607</v>
+        <v>62373</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>87966</v>
+        <v>88034</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1842412291429618</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1537960830856308</v>
+        <v>0.1532200709511197</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2160899398397053</v>
+        <v>0.2162580849123679</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>234</v>
@@ -1847,19 +1847,19 @@
         <v>127611</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>114467</v>
+        <v>114134</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>141457</v>
+        <v>139999</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2909510977694305</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.260983612830632</v>
+        <v>0.2602243875941049</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3225219609019641</v>
+        <v>0.3191965647011531</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>341</v>
@@ -1868,19 +1868,19 @@
         <v>202611</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>184815</v>
+        <v>184337</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>222640</v>
+        <v>221489</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2395846669727734</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2185409327382554</v>
+        <v>0.2179760976417138</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2632681626088664</v>
+        <v>0.261907620487111</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>332079</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>319114</v>
+        <v>319046</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>344473</v>
+        <v>344707</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8157587708570382</v>
+        <v>0.8157587708570383</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7839100601602946</v>
+        <v>0.7837419150876319</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8462039169143694</v>
+        <v>0.84677992904888</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>592</v>
@@ -1918,19 +1918,19 @@
         <v>310987</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>297141</v>
+        <v>298599</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>324131</v>
+        <v>324464</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7090489022305696</v>
+        <v>0.7090489022305695</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6774780390980361</v>
+        <v>0.6808034352988471</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7390163871693682</v>
+        <v>0.7397756124058961</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1055</v>
@@ -1939,19 +1939,19 @@
         <v>643066</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>623037</v>
+        <v>624188</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>660862</v>
+        <v>661340</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7604153330272265</v>
+        <v>0.7604153330272266</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7367318373911341</v>
+        <v>0.738092379512889</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7814590672617449</v>
+        <v>0.7820239023582863</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>82386</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>69830</v>
+        <v>70727</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>95686</v>
+        <v>97286</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2655914728938245</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2251134651644503</v>
+        <v>0.2280061826681923</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3084671030433183</v>
+        <v>0.3136252380789721</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>326</v>
@@ -2064,19 +2064,19 @@
         <v>179808</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>163906</v>
+        <v>164885</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>195871</v>
+        <v>195294</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3870092772647841</v>
+        <v>0.387009277264784</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3527817907374299</v>
+        <v>0.3548905746712833</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4215830327793373</v>
+        <v>0.4203414117190186</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>450</v>
@@ -2085,19 +2085,19 @@
         <v>262194</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>243638</v>
+        <v>243115</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>284282</v>
+        <v>284826</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3383989938725551</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3144496630399169</v>
+        <v>0.3137750323019263</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3669072638897862</v>
+        <v>0.3676093105420157</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>227812</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>214512</v>
+        <v>212912</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>240368</v>
+        <v>239471</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7344085271061753</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6915328969566819</v>
+        <v>0.6863747619210279</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7748865348355498</v>
+        <v>0.7719938173318079</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>555</v>
@@ -2135,19 +2135,19 @@
         <v>284801</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>268738</v>
+        <v>269315</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>300703</v>
+        <v>299724</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.6129907227352159</v>
+        <v>0.6129907227352158</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5784169672206634</v>
+        <v>0.5796585882809812</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6472182092625707</v>
+        <v>0.6451094253287165</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>889</v>
@@ -2156,19 +2156,19 @@
         <v>512613</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>490525</v>
+        <v>489981</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>531169</v>
+        <v>531692</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.661601006127445</v>
+        <v>0.6616010061274448</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6330927361102138</v>
+        <v>0.632390689457984</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6855503369600832</v>
+        <v>0.6862249676980734</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>449347</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>404729</v>
+        <v>410440</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>487484</v>
+        <v>491703</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1272332505721102</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1145995139731708</v>
+        <v>0.1162167825496997</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1380317157736684</v>
+        <v>0.1392263705657714</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1240</v>
@@ -2281,19 +2281,19 @@
         <v>793993</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>750636</v>
+        <v>753434</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>839314</v>
+        <v>837902</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2126938985933597</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2010795273596645</v>
+        <v>0.2018290135193979</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2248343909966031</v>
+        <v>0.2244563118292672</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1738</v>
@@ -2302,19 +2302,19 @@
         <v>1243340</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1186748</v>
+        <v>1184442</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1300950</v>
+        <v>1305750</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1711478928820818</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1633578662870034</v>
+        <v>0.1630404466656531</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1790780461591763</v>
+        <v>0.1797387385654656</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>3082333</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3044196</v>
+        <v>3039977</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3126951</v>
+        <v>3121240</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8727667494278898</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8619682842263318</v>
+        <v>0.8607736294342291</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8854004860268291</v>
+        <v>0.8837832174503005</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4120</v>
@@ -2352,19 +2352,19 @@
         <v>2939037</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2893716</v>
+        <v>2895128</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2982394</v>
+        <v>2979596</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7873061014066403</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7751656090033968</v>
+        <v>0.7755436881707322</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7989204726403355</v>
+        <v>0.798170986480602</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6997</v>
@@ -2373,19 +2373,19 @@
         <v>6021370</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5963760</v>
+        <v>5958960</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6077962</v>
+        <v>6080268</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8288521071179181</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8209219538408237</v>
+        <v>0.8202612614345344</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8366421337129967</v>
+        <v>0.836959553334347</v>
       </c>
     </row>
     <row r="27">
